--- a/kittyserver/gametools/parseExcelTool/Excel/UniteGridInit.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/UniteGridInit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,10 +480,6 @@
   </si>
   <si>
     <t>4,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +857,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1214,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>32</v>
